--- a/src/analysis_examples/circadb/results_jtk/cosinor_10566767_st5_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10566767_st5_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2323252106311996, 0.35997225422289014]</t>
+          <t>[0.23218684345002216, 0.3601106214040676]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.604337495133336e-09</v>
+        <v>3.74188902085848e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.604337495133336e-09</v>
+        <v>3.74188902085848e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.798789787641002</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.0252108797916186, -1.5723686954903862]</t>
+          <t>[-2.0377898293555408, -1.559789745926464]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.647570968543732e-13</v>
+        <v>4.725109192804666e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>1.647570968543732e-13</v>
+        <v>4.725109192804666e-13</v>
       </c>
       <c r="S2" t="n">
         <v>0.3784740286284524</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3411433220141434, 0.41580473524276146]</t>
+          <t>[0.34109512340522485, 0.41585293385168]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>6.464344344344461</v>
       </c>
       <c r="X2" t="n">
-        <v>5.650650650650751</v>
+        <v>5.605445445445548</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.278038038038171</v>
+        <v>7.323243243243374</v>
       </c>
     </row>
   </sheetData>
